--- a/R/files_05_data_import_solutions/exercise07/virus_genome.xlsx
+++ b/R/files_05_data_import_solutions/exercise07/virus_genome.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">date_submission</t>
   </si>
   <si>
-    <t xml:space="preserve">source</t>
+    <t xml:space="preserve">ref_source</t>
   </si>
   <si>
     <t xml:space="preserve">ORF1</t>
